--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ptdss1-Scarb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ptdss1-Scarb1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.135072333333333</v>
+        <v>7.327452000000001</v>
       </c>
       <c r="H2">
-        <v>21.405217</v>
+        <v>21.982356</v>
       </c>
       <c r="I2">
-        <v>0.2435182897332695</v>
+        <v>0.2396705957528817</v>
       </c>
       <c r="J2">
-        <v>0.2435182897332695</v>
+        <v>0.2396705957528817</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>82.48638166666667</v>
+        <v>125.901487</v>
       </c>
       <c r="N2">
-        <v>247.459145</v>
+        <v>377.704461</v>
       </c>
       <c r="O2">
-        <v>0.7894957391680834</v>
+        <v>0.8798726812012091</v>
       </c>
       <c r="P2">
-        <v>0.7894957391680832</v>
+        <v>0.879872681201209</v>
       </c>
       <c r="Q2">
-        <v>588.5462997066073</v>
+        <v>922.5371027211243</v>
       </c>
       <c r="R2">
-        <v>5296.916697359466</v>
+        <v>8302.833924490118</v>
       </c>
       <c r="S2">
-        <v>0.1922566521539151</v>
+        <v>0.2108796096901792</v>
       </c>
       <c r="T2">
-        <v>0.192256652153915</v>
+        <v>0.2108796096901791</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.135072333333333</v>
+        <v>7.327452000000001</v>
       </c>
       <c r="H3">
-        <v>21.405217</v>
+        <v>21.982356</v>
       </c>
       <c r="I3">
-        <v>0.2435182897332695</v>
+        <v>0.2396705957528817</v>
       </c>
       <c r="J3">
-        <v>0.2435182897332695</v>
+        <v>0.2396705957528817</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,22 +623,22 @@
         <v>2.614021</v>
       </c>
       <c r="O3">
-        <v>0.008339794601633706</v>
+        <v>0.006089432091685741</v>
       </c>
       <c r="P3">
-        <v>0.008339794601633704</v>
+        <v>0.006089432091685741</v>
       </c>
       <c r="Q3">
-        <v>6.217076305284111</v>
+        <v>6.384704468164001</v>
       </c>
       <c r="R3">
-        <v>55.95368674755701</v>
+        <v>57.46234021347601</v>
       </c>
       <c r="S3">
-        <v>0.002030892518116593</v>
+        <v>0.001459457817211038</v>
       </c>
       <c r="T3">
-        <v>0.002030892518116593</v>
+        <v>0.001459457817211038</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.135072333333333</v>
+        <v>7.327452000000001</v>
       </c>
       <c r="H4">
-        <v>21.405217</v>
+        <v>21.982356</v>
       </c>
       <c r="I4">
-        <v>0.2435182897332695</v>
+        <v>0.2396705957528817</v>
       </c>
       <c r="J4">
-        <v>0.2435182897332695</v>
+        <v>0.2396705957528817</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.237039</v>
+        <v>2.781571666666667</v>
       </c>
       <c r="N4">
-        <v>9.711117</v>
+        <v>8.344715000000001</v>
       </c>
       <c r="O4">
-        <v>0.03098242941905719</v>
+        <v>0.01943923760251788</v>
       </c>
       <c r="P4">
-        <v>0.03098242941905719</v>
+        <v>0.01943923760251788</v>
       </c>
       <c r="Q4">
-        <v>23.096507410821</v>
+        <v>20.38183287206</v>
       </c>
       <c r="R4">
-        <v>207.868566697389</v>
+        <v>183.43649584854</v>
       </c>
       <c r="S4">
-        <v>0.00754478822391054</v>
+        <v>0.00465901365717728</v>
       </c>
       <c r="T4">
-        <v>0.00754478822391054</v>
+        <v>0.004659013657177279</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.135072333333333</v>
+        <v>7.327452000000001</v>
       </c>
       <c r="H5">
-        <v>21.405217</v>
+        <v>21.982356</v>
       </c>
       <c r="I5">
-        <v>0.2435182897332695</v>
+        <v>0.2396705957528817</v>
       </c>
       <c r="J5">
-        <v>0.2435182897332695</v>
+        <v>0.2396705957528817</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.88507033333333</v>
+        <v>13.536175</v>
       </c>
       <c r="N5">
-        <v>53.655211</v>
+        <v>40.608525</v>
       </c>
       <c r="O5">
-        <v>0.1711820368112258</v>
+        <v>0.09459864910458742</v>
       </c>
       <c r="P5">
-        <v>0.1711820368112258</v>
+        <v>0.09459864910458742</v>
       </c>
       <c r="Q5">
-        <v>127.6112705150875</v>
+        <v>99.18567257610002</v>
       </c>
       <c r="R5">
-        <v>1148.501434635787</v>
+        <v>892.6710531849001</v>
       </c>
       <c r="S5">
-        <v>0.04168595683732729</v>
+        <v>0.02267251458831428</v>
       </c>
       <c r="T5">
-        <v>0.04168595683732729</v>
+        <v>0.02267251458831427</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>33.818214</v>
       </c>
       <c r="I6">
-        <v>0.3847358162785133</v>
+        <v>0.3687153231745697</v>
       </c>
       <c r="J6">
-        <v>0.3847358162785133</v>
+        <v>0.3687153231745697</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>82.48638166666667</v>
+        <v>125.901487</v>
       </c>
       <c r="N6">
-        <v>247.459145</v>
+        <v>377.704461</v>
       </c>
       <c r="O6">
-        <v>0.7894957391680834</v>
+        <v>0.8798726812012091</v>
       </c>
       <c r="P6">
-        <v>0.7894957391680832</v>
+        <v>0.879872681201209</v>
       </c>
       <c r="Q6">
-        <v>929.8473690963366</v>
+        <v>1419.254476761406</v>
       </c>
       <c r="R6">
-        <v>8368.62632186703</v>
+        <v>12773.29029085265</v>
       </c>
       <c r="S6">
-        <v>0.3037472876572407</v>
+        <v>0.324422540001579</v>
       </c>
       <c r="T6">
-        <v>0.3037472876572407</v>
+        <v>0.3244225400015789</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>33.818214</v>
       </c>
       <c r="I7">
-        <v>0.3847358162785133</v>
+        <v>0.3687153231745697</v>
       </c>
       <c r="J7">
-        <v>0.3847358162785133</v>
+        <v>0.3687153231745697</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -871,10 +871,10 @@
         <v>2.614021</v>
       </c>
       <c r="O7">
-        <v>0.008339794601633706</v>
+        <v>0.006089432091685741</v>
       </c>
       <c r="P7">
-        <v>0.008339794601633704</v>
+        <v>0.006089432091685741</v>
       </c>
       <c r="Q7">
         <v>9.822391286499332</v>
@@ -883,10 +883,10 @@
         <v>88.401521578494</v>
       </c>
       <c r="S7">
-        <v>0.003208617683654682</v>
+        <v>0.002245266921635504</v>
       </c>
       <c r="T7">
-        <v>0.003208617683654682</v>
+        <v>0.002245266921635504</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>33.818214</v>
       </c>
       <c r="I8">
-        <v>0.3847358162785133</v>
+        <v>0.3687153231745697</v>
       </c>
       <c r="J8">
-        <v>0.3847358162785133</v>
+        <v>0.3687153231745697</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.237039</v>
+        <v>2.781571666666667</v>
       </c>
       <c r="N8">
-        <v>9.711117</v>
+        <v>8.344715000000001</v>
       </c>
       <c r="O8">
-        <v>0.03098242941905719</v>
+        <v>0.01943923760251788</v>
       </c>
       <c r="P8">
-        <v>0.03098242941905719</v>
+        <v>0.01943923760251788</v>
       </c>
       <c r="Q8">
-        <v>36.49029254278199</v>
+        <v>31.35592862655666</v>
       </c>
       <c r="R8">
-        <v>328.412632885038</v>
+        <v>282.20335763901</v>
       </c>
       <c r="S8">
-        <v>0.01192005027283239</v>
+        <v>0.007167544774879627</v>
       </c>
       <c r="T8">
-        <v>0.01192005027283239</v>
+        <v>0.007167544774879627</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>33.818214</v>
       </c>
       <c r="I9">
-        <v>0.3847358162785133</v>
+        <v>0.3687153231745697</v>
       </c>
       <c r="J9">
-        <v>0.3847358162785133</v>
+        <v>0.3687153231745697</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>17.88507033333333</v>
+        <v>13.536175</v>
       </c>
       <c r="N9">
-        <v>53.655211</v>
+        <v>40.608525</v>
       </c>
       <c r="O9">
-        <v>0.1711820368112258</v>
+        <v>0.09459864910458742</v>
       </c>
       <c r="P9">
-        <v>0.1711820368112258</v>
+        <v>0.09459864910458742</v>
       </c>
       <c r="Q9">
-        <v>201.6137119792393</v>
+        <v>152.58975429715</v>
       </c>
       <c r="R9">
-        <v>1814.523407813154</v>
+        <v>1373.30778867435</v>
       </c>
       <c r="S9">
-        <v>0.06585986066478548</v>
+        <v>0.03487997147647567</v>
       </c>
       <c r="T9">
-        <v>0.06585986066478548</v>
+        <v>0.03487997147647567</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.580172</v>
+        <v>6.386255666666667</v>
       </c>
       <c r="H10">
-        <v>13.740516</v>
+        <v>19.158767</v>
       </c>
       <c r="I10">
-        <v>0.1563201604717497</v>
+        <v>0.2088853943035337</v>
       </c>
       <c r="J10">
-        <v>0.1563201604717497</v>
+        <v>0.2088853943035337</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>82.48638166666667</v>
+        <v>125.901487</v>
       </c>
       <c r="N10">
-        <v>247.459145</v>
+        <v>377.704461</v>
       </c>
       <c r="O10">
-        <v>0.7894957391680834</v>
+        <v>0.8798726812012091</v>
       </c>
       <c r="P10">
-        <v>0.7894957391680832</v>
+        <v>0.879872681201209</v>
       </c>
       <c r="Q10">
-        <v>377.80181569098</v>
+        <v>804.0390847955098</v>
       </c>
       <c r="R10">
-        <v>3400.21634121882</v>
+        <v>7236.351763159588</v>
       </c>
       <c r="S10">
-        <v>0.1234141006385174</v>
+        <v>0.183792551949622</v>
       </c>
       <c r="T10">
-        <v>0.1234141006385174</v>
+        <v>0.1837925519496219</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.580172</v>
+        <v>6.386255666666667</v>
       </c>
       <c r="H11">
-        <v>13.740516</v>
+        <v>19.158767</v>
       </c>
       <c r="I11">
-        <v>0.1563201604717497</v>
+        <v>0.2088853943035337</v>
       </c>
       <c r="J11">
-        <v>0.1563201604717497</v>
+        <v>0.2088853943035337</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,22 +1119,22 @@
         <v>2.614021</v>
       </c>
       <c r="O11">
-        <v>0.008339794601633706</v>
+        <v>0.006089432091685741</v>
       </c>
       <c r="P11">
-        <v>0.008339794601633704</v>
+        <v>0.006089432091685741</v>
       </c>
       <c r="Q11">
-        <v>3.990888597204</v>
+        <v>5.564602141345222</v>
       </c>
       <c r="R11">
-        <v>35.917997374836</v>
+        <v>50.08141927210701</v>
       </c>
       <c r="S11">
-        <v>0.001303678030428813</v>
+        <v>0.001271993423556368</v>
       </c>
       <c r="T11">
-        <v>0.001303678030428813</v>
+        <v>0.001271993423556368</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.580172</v>
+        <v>6.386255666666667</v>
       </c>
       <c r="H12">
-        <v>13.740516</v>
+        <v>19.158767</v>
       </c>
       <c r="I12">
-        <v>0.1563201604717497</v>
+        <v>0.2088853943035337</v>
       </c>
       <c r="J12">
-        <v>0.1563201604717497</v>
+        <v>0.2088853943035337</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.237039</v>
+        <v>2.781571666666667</v>
       </c>
       <c r="N12">
-        <v>9.711117</v>
+        <v>8.344715000000001</v>
       </c>
       <c r="O12">
-        <v>0.03098242941905719</v>
+        <v>0.01943923760251788</v>
       </c>
       <c r="P12">
-        <v>0.03098242941905719</v>
+        <v>0.01943923760251788</v>
       </c>
       <c r="Q12">
-        <v>14.826195390708</v>
+        <v>17.76382781848945</v>
       </c>
       <c r="R12">
-        <v>133.435758516372</v>
+        <v>159.874450366405</v>
       </c>
       <c r="S12">
-        <v>0.004843178338591678</v>
+        <v>0.004060572811562026</v>
       </c>
       <c r="T12">
-        <v>0.004843178338591678</v>
+        <v>0.004060572811562025</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.580172</v>
+        <v>6.386255666666667</v>
       </c>
       <c r="H13">
-        <v>13.740516</v>
+        <v>19.158767</v>
       </c>
       <c r="I13">
-        <v>0.1563201604717497</v>
+        <v>0.2088853943035337</v>
       </c>
       <c r="J13">
-        <v>0.1563201604717497</v>
+        <v>0.2088853943035337</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>17.88507033333333</v>
+        <v>13.536175</v>
       </c>
       <c r="N13">
-        <v>53.655211</v>
+        <v>40.608525</v>
       </c>
       <c r="O13">
-        <v>0.1711820368112258</v>
+        <v>0.09459864910458742</v>
       </c>
       <c r="P13">
-        <v>0.1711820368112258</v>
+        <v>0.09459864910458742</v>
       </c>
       <c r="Q13">
-        <v>81.91669835876401</v>
+        <v>86.44547429874167</v>
       </c>
       <c r="R13">
-        <v>737.250285228876</v>
+        <v>778.0092686886751</v>
       </c>
       <c r="S13">
-        <v>0.02675920346421179</v>
+        <v>0.01976027611879337</v>
       </c>
       <c r="T13">
-        <v>0.02675920346421179</v>
+        <v>0.01976027611879336</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>6.311962</v>
+        <v>5.586566333333333</v>
       </c>
       <c r="H14">
-        <v>18.935886</v>
+        <v>16.759699</v>
       </c>
       <c r="I14">
-        <v>0.2154257335164676</v>
+        <v>0.1827286867690149</v>
       </c>
       <c r="J14">
-        <v>0.2154257335164676</v>
+        <v>0.1827286867690149</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>82.48638166666667</v>
+        <v>125.901487</v>
       </c>
       <c r="N14">
-        <v>247.459145</v>
+        <v>377.704461</v>
       </c>
       <c r="O14">
-        <v>0.7894957391680834</v>
+        <v>0.8798726812012091</v>
       </c>
       <c r="P14">
-        <v>0.7894957391680832</v>
+        <v>0.879872681201209</v>
       </c>
       <c r="Q14">
-        <v>520.6509065974967</v>
+        <v>703.3570085908044</v>
       </c>
       <c r="R14">
-        <v>4685.85815937747</v>
+        <v>6330.213077317238</v>
       </c>
       <c r="S14">
-        <v>0.1700776987184101</v>
+        <v>0.160777979559829</v>
       </c>
       <c r="T14">
-        <v>0.1700776987184101</v>
+        <v>0.160777979559829</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>6.311962</v>
+        <v>5.586566333333333</v>
       </c>
       <c r="H15">
-        <v>18.935886</v>
+        <v>16.759699</v>
       </c>
       <c r="I15">
-        <v>0.2154257335164676</v>
+        <v>0.1827286867690149</v>
       </c>
       <c r="J15">
-        <v>0.2154257335164676</v>
+        <v>0.1827286867690149</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1367,22 +1367,22 @@
         <v>2.614021</v>
       </c>
       <c r="O15">
-        <v>0.008339794601633706</v>
+        <v>0.006089432091685741</v>
       </c>
       <c r="P15">
-        <v>0.008339794601633704</v>
+        <v>0.006089432091685741</v>
       </c>
       <c r="Q15">
-        <v>5.499867073067334</v>
+        <v>4.867800571075445</v>
       </c>
       <c r="R15">
-        <v>49.498803657606</v>
+        <v>43.810205139679</v>
       </c>
       <c r="S15">
-        <v>0.001796606369433617</v>
+        <v>0.001112713929282831</v>
       </c>
       <c r="T15">
-        <v>0.001796606369433617</v>
+        <v>0.001112713929282831</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>6.311962</v>
+        <v>5.586566333333333</v>
       </c>
       <c r="H16">
-        <v>18.935886</v>
+        <v>16.759699</v>
       </c>
       <c r="I16">
-        <v>0.2154257335164676</v>
+        <v>0.1827286867690149</v>
       </c>
       <c r="J16">
-        <v>0.2154257335164676</v>
+        <v>0.1827286867690149</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.237039</v>
+        <v>2.781571666666667</v>
       </c>
       <c r="N16">
-        <v>9.711117</v>
+        <v>8.344715000000001</v>
       </c>
       <c r="O16">
-        <v>0.03098242941905719</v>
+        <v>0.01943923760251788</v>
       </c>
       <c r="P16">
-        <v>0.03098242941905719</v>
+        <v>0.01943923760251788</v>
       </c>
       <c r="Q16">
-        <v>20.432067160518</v>
+        <v>15.53943462675389</v>
       </c>
       <c r="R16">
-        <v>183.888604444662</v>
+        <v>139.854911640785</v>
       </c>
       <c r="S16">
-        <v>0.006674412583722579</v>
+        <v>0.003552106358898945</v>
       </c>
       <c r="T16">
-        <v>0.006674412583722579</v>
+        <v>0.003552106358898945</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>6.311962</v>
+        <v>5.586566333333333</v>
       </c>
       <c r="H17">
-        <v>18.935886</v>
+        <v>16.759699</v>
       </c>
       <c r="I17">
-        <v>0.2154257335164676</v>
+        <v>0.1827286867690149</v>
       </c>
       <c r="J17">
-        <v>0.2154257335164676</v>
+        <v>0.1827286867690149</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>17.88507033333333</v>
+        <v>13.536175</v>
       </c>
       <c r="N17">
-        <v>53.655211</v>
+        <v>40.608525</v>
       </c>
       <c r="O17">
-        <v>0.1711820368112258</v>
+        <v>0.09459864910458742</v>
       </c>
       <c r="P17">
-        <v>0.1711820368112258</v>
+        <v>0.09459864910458742</v>
       </c>
       <c r="Q17">
-        <v>112.8898843113274</v>
+        <v>75.62073953710832</v>
       </c>
       <c r="R17">
-        <v>1016.008958801946</v>
+        <v>680.5866558339749</v>
       </c>
       <c r="S17">
-        <v>0.03687701584490128</v>
+        <v>0.0172858869210041</v>
       </c>
       <c r="T17">
-        <v>0.03687701584490127</v>
+        <v>0.0172858869210041</v>
       </c>
     </row>
   </sheetData>
